--- a/client_try/public/samplecsv.xlsx
+++ b/client_try/public/samplecsv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maity\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B32A326-D4FB-467C-8EF5-3577D891E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31C6A9-1017-48BF-AB99-EFB77B86D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="108">
   <si>
     <t>Hotel Name</t>
   </si>
@@ -166,15 +166,6 @@
     <t>LUXURY TRIPLE ROOM</t>
   </si>
   <si>
-    <t>SEA COST</t>
-  </si>
-  <si>
-    <t>SWAPAN BANERJEE</t>
-  </si>
-  <si>
-    <t>0117136173</t>
-  </si>
-  <si>
     <t>7-3-2024</t>
   </si>
   <si>
@@ -184,82 +175,22 @@
     <t>4</t>
   </si>
   <si>
-    <t>NON AC ROOM</t>
-  </si>
-  <si>
-    <t>GoMMT</t>
-  </si>
-  <si>
-    <t>DILIP JANA</t>
-  </si>
-  <si>
-    <t>EP</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SAROJIT MAITRA</t>
-  </si>
-  <si>
-    <t>1203259853</t>
-  </si>
-  <si>
     <t>24-3-2024</t>
   </si>
   <si>
-    <t>26-3-2024</t>
-  </si>
-  <si>
-    <t>DELUXE DOUBLE ROOM</t>
-  </si>
-  <si>
     <t>Agoda</t>
   </si>
   <si>
-    <t>ASIT KR BISWAS</t>
-  </si>
-  <si>
-    <t>7003690501</t>
-  </si>
-  <si>
-    <t>25-3-2024</t>
-  </si>
-  <si>
     <t>27-3-2024</t>
   </si>
   <si>
-    <t>1-3-2014</t>
-  </si>
-  <si>
-    <t>MR SNEHASHIS SARKAR</t>
-  </si>
-  <si>
-    <t>8777745041</t>
-  </si>
-  <si>
-    <t>12-3-2024</t>
-  </si>
-  <si>
     <t>17-3-2024</t>
   </si>
   <si>
     <t>29-2-2024</t>
   </si>
   <si>
-    <t>HOTEL</t>
-  </si>
-  <si>
-    <t>AMAL MONDAL</t>
-  </si>
-  <si>
-    <t>9800211887</t>
-  </si>
-  <si>
     <t>4-3-2024</t>
-  </si>
-  <si>
-    <t>FAMILY ROOM</t>
   </si>
   <si>
     <t xml:space="preserve">RAVI AGARWAL </t>
@@ -789,13 +720,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1153,37 +1090,37 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J7">
-        <v>4243</v>
+        <v>12880</v>
       </c>
       <c r="K7">
-        <v>4243</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
@@ -1192,10 +1129,10 @@
         <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
@@ -1204,45 +1141,45 @@
         <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
       <c r="J8">
-        <v>12582</v>
+        <v>5796</v>
       </c>
       <c r="K8">
-        <v>12582</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="s">
         <v>28</v>
@@ -1251,10 +1188,10 @@
         <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
         <v>32</v>
@@ -1263,15 +1200,15 @@
         <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -1283,37 +1220,37 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9">
-        <v>2122</v>
+        <v>5039</v>
       </c>
       <c r="K9">
-        <v>2122</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s">
         <v>32</v>
@@ -1322,57 +1259,57 @@
         <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J10">
-        <v>13000</v>
+        <v>2800</v>
       </c>
       <c r="K10">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s">
         <v>32</v>
@@ -1381,57 +1318,57 @@
         <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J11">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="K11">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P11" t="s">
         <v>32</v>
@@ -1440,10 +1377,10 @@
         <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1451,43 +1388,43 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="J12">
-        <v>12880</v>
+        <v>8624</v>
       </c>
       <c r="K12">
-        <v>4000</v>
+        <v>2310</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
         <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
         <v>31</v>
@@ -1510,43 +1447,43 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="J13">
-        <v>5796</v>
+        <v>7000</v>
       </c>
       <c r="K13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
         <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
         <v>31</v>
@@ -1561,7 +1498,7 @@
         <v>33</v>
       </c>
       <c r="S13" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1569,43 +1506,43 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>12550</v>
+      </c>
+      <c r="K14">
+        <v>4000</v>
+      </c>
+      <c r="L14" t="s">
         <v>84</v>
-      </c>
-      <c r="J14">
-        <v>5039</v>
-      </c>
-      <c r="K14">
-        <v>1500</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
       </c>
       <c r="M14" t="s">
         <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
         <v>31</v>
@@ -1628,10 +1565,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1640,31 +1577,31 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15">
+        <v>6400</v>
+      </c>
+      <c r="K15">
+        <v>2000</v>
+      </c>
+      <c r="L15" t="s">
         <v>84</v>
-      </c>
-      <c r="J15">
-        <v>2800</v>
-      </c>
-      <c r="K15">
-        <v>1500</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
       </c>
       <c r="M15" t="s">
         <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
         <v>31</v>
@@ -1687,37 +1624,37 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="J16">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="K16">
         <v>3500</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
@@ -1746,43 +1683,43 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J17">
-        <v>8624</v>
+        <v>10800</v>
       </c>
       <c r="K17">
-        <v>2310</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
         <v>31</v>
@@ -1797,7 +1734,7 @@
         <v>33</v>
       </c>
       <c r="S17" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1805,37 +1742,37 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="J18">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="K18">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
         <v>29</v>
@@ -1856,7 +1793,7 @@
         <v>33</v>
       </c>
       <c r="S18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1864,43 +1801,43 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J19">
-        <v>12550</v>
+        <v>14000</v>
       </c>
       <c r="K19">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="L19" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="M19" t="s">
         <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
         <v>31</v>
@@ -1915,7 +1852,7 @@
         <v>33</v>
       </c>
       <c r="S19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1923,19 +1860,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1944,16 +1881,16 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J20">
-        <v>6400</v>
+        <v>16500</v>
       </c>
       <c r="K20">
-        <v>2000</v>
+        <v>11247</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M20" t="s">
         <v>29</v>
@@ -1982,34 +1919,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
         <v>73</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" t="s">
-        <v>96</v>
-      </c>
       <c r="J21">
-        <v>7000</v>
+        <v>5318</v>
       </c>
       <c r="K21">
-        <v>3500</v>
+        <v>1595</v>
       </c>
       <c r="L21" t="s">
         <v>107</v>
@@ -2018,7 +1955,7 @@
         <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O21" t="s">
         <v>31</v>
@@ -2033,308 +1970,13 @@
         <v>33</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22">
-        <v>10800</v>
-      </c>
-      <c r="K22">
-        <v>3000</v>
-      </c>
-      <c r="L22" t="s">
-        <v>107</v>
-      </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23">
-        <v>5000</v>
-      </c>
-      <c r="K23">
-        <v>1500</v>
-      </c>
-      <c r="L23" t="s">
-        <v>107</v>
-      </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24">
-        <v>14000</v>
-      </c>
-      <c r="K24">
-        <v>4200</v>
-      </c>
-      <c r="L24" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25">
-        <v>16500</v>
-      </c>
-      <c r="K25">
-        <v>11247</v>
-      </c>
-      <c r="L25" t="s">
-        <v>127</v>
-      </c>
-      <c r="M25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" t="s">
-        <v>30</v>
-      </c>
-      <c r="O25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26">
-        <v>5318</v>
-      </c>
-      <c r="K26">
-        <v>1595</v>
-      </c>
-      <c r="L26" t="s">
-        <v>130</v>
-      </c>
-      <c r="M26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26" t="s">
-        <v>33</v>
-      </c>
-      <c r="S26" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K26 L1:S26" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K6 L1:S6 A7:K21 L7:S21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>